--- a/results/scored/HCC_precision.xlsx
+++ b/results/scored/HCC_precision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/pico-parser-llm/results/scored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7342021F-4BB9-8945-8170-131AA0B16939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E3728B-60F1-EF4A-8C09-F7CF814D78FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{26F03DF1-3EF4-4D4D-BAFA-027CB1457E9F}"/>
   </bookViews>
@@ -1749,9 +1749,6 @@
     <t>electrocardiography</t>
   </si>
   <si>
-    <t>Extracted_PICO_ID</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -3103,6 +3100,9 @@
   </si>
   <si>
     <t>Missing "first line treatment" and pravastin in comparator is wrong</t>
+  </si>
+  <si>
+    <t>PICO_ID</t>
   </si>
 </sst>
 </file>
@@ -3988,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9801F05F-5284-6242-8CE2-F4DE0D0274E9}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4002,13 +4002,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -4016,18 +4016,18 @@
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4038,18 +4038,18 @@
     </row>
     <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B5" s="2">
         <v>0.5</v>
@@ -4058,23 +4058,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B7" s="2">
         <v>0.5</v>
@@ -4083,23 +4083,23 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -4108,23 +4108,23 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B11" s="2">
         <v>0.5</v>
@@ -4133,23 +4133,23 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B13" s="2">
         <v>0.5</v>
@@ -4158,23 +4158,23 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -4183,23 +4183,23 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B17" s="2">
         <v>0.5</v>
@@ -4208,23 +4208,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B19" s="2">
         <v>0.5</v>
@@ -4233,23 +4233,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B21" s="2">
         <v>0.5</v>
@@ -4258,23 +4258,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -4285,18 +4285,18 @@
     </row>
     <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -4307,18 +4307,18 @@
     </row>
     <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B27" s="2">
         <v>0.5</v>
@@ -4327,23 +4327,23 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B29" s="2">
         <v>0.5</v>
@@ -4352,23 +4352,23 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B31" s="2">
         <v>0.5</v>
@@ -4377,23 +4377,23 @@
         <v>0.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B33" s="2">
         <v>0.5</v>
@@ -4402,23 +4402,23 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B35" s="2">
         <v>0.5</v>
@@ -4427,23 +4427,23 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B37" s="2">
         <v>0.5</v>
@@ -4452,23 +4452,23 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B39" s="2">
         <v>0.25</v>
@@ -4477,23 +4477,23 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B41" s="2">
         <v>0.75</v>
@@ -4502,23 +4502,23 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -4529,18 +4529,18 @@
     </row>
     <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B45" s="2">
         <v>0.25</v>
@@ -4549,23 +4549,23 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -4576,18 +4576,18 @@
     </row>
     <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B49" s="2">
         <v>0.5</v>
@@ -4596,23 +4596,23 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B51" s="2">
         <v>0.5</v>
@@ -4621,23 +4621,23 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B53" s="2">
         <v>0.5</v>
@@ -4646,23 +4646,23 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B55" s="2">
         <v>0.5</v>
@@ -4671,23 +4671,23 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B57" s="2">
         <v>0.5</v>
@@ -4696,23 +4696,23 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B59" s="2">
         <v>0.5</v>
@@ -4721,23 +4721,23 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B61" s="3">
         <v>0.25</v>
@@ -4746,23 +4746,23 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B63" s="3">
         <v>0.5</v>
@@ -4771,23 +4771,23 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B65" s="3">
         <v>0.5</v>
@@ -4796,23 +4796,23 @@
         <v>0.5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -4823,18 +4823,18 @@
     </row>
     <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -4845,18 +4845,18 @@
     </row>
     <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -4867,18 +4867,18 @@
     </row>
     <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -4889,18 +4889,18 @@
     </row>
     <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B75" s="3">
         <v>0.25</v>
@@ -4909,23 +4909,23 @@
         <v>1</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B77" s="3">
         <v>0.5</v>
@@ -4934,23 +4934,23 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -4961,18 +4961,18 @@
     </row>
     <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -4983,18 +4983,18 @@
     </row>
     <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -5005,18 +5005,18 @@
     </row>
     <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -5027,18 +5027,18 @@
     </row>
     <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -5049,18 +5049,18 @@
     </row>
     <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B89" s="2">
         <f>2/3</f>
@@ -5070,23 +5070,23 @@
         <v>0.5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B91" s="3">
         <v>0.5</v>
@@ -5095,23 +5095,23 @@
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B93" s="2">
         <v>0.5</v>
@@ -5120,23 +5120,23 @@
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B95" s="2">
         <v>0.5</v>
@@ -5147,18 +5147,18 @@
     </row>
     <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -5169,18 +5169,18 @@
     </row>
     <row r="98" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -5191,18 +5191,18 @@
     </row>
     <row r="100" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -5213,18 +5213,18 @@
     </row>
     <row r="102" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -5235,18 +5235,18 @@
     </row>
     <row r="104" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
@@ -5257,18 +5257,18 @@
     </row>
     <row r="106" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -5279,18 +5279,18 @@
     </row>
     <row r="108" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -5301,18 +5301,18 @@
     </row>
     <row r="110" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -5323,18 +5323,18 @@
     </row>
     <row r="112" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -5345,18 +5345,18 @@
     </row>
     <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -5367,18 +5367,18 @@
     </row>
     <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
@@ -5389,18 +5389,18 @@
     </row>
     <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
@@ -5411,18 +5411,18 @@
     </row>
     <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>697</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B121" s="2">
         <v>0.5</v>
@@ -5431,23 +5431,23 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B123" s="2">
         <v>0.5</v>
@@ -5456,23 +5456,23 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
@@ -5483,18 +5483,18 @@
     </row>
     <row r="126" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -5505,18 +5505,18 @@
     </row>
     <row r="128" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5657,7 +5657,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5676,7 +5676,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5746,7 +5746,7 @@
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5762,7 +5762,7 @@
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5781,7 +5781,7 @@
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5800,7 +5800,7 @@
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5816,7 +5816,7 @@
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5832,7 +5832,7 @@
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5848,7 +5848,7 @@
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5864,7 +5864,7 @@
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5880,7 +5880,7 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5896,7 +5896,7 @@
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,7 +5912,7 @@
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5928,7 +5928,7 @@
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5944,7 +5944,7 @@
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5960,7 +5960,7 @@
     </row>
     <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5976,7 +5976,7 @@
     </row>
     <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5995,7 +5995,7 @@
     </row>
     <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6011,7 +6011,7 @@
     </row>
     <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
     </row>
     <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6043,7 +6043,7 @@
     </row>
     <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6059,7 +6059,7 @@
     </row>
     <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
     </row>
     <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6094,7 +6094,7 @@
     </row>
     <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
     </row>
     <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
     </row>
     <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
     </row>
     <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6170,7 +6170,7 @@
     </row>
     <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6186,7 +6186,7 @@
     </row>
     <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6202,7 +6202,7 @@
     </row>
     <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6221,7 +6221,7 @@
     </row>
     <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
     </row>
     <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6253,7 +6253,7 @@
     </row>
     <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
     </row>
     <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6288,7 +6288,7 @@
     </row>
     <row r="87" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,7 +6307,7 @@
     </row>
     <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6323,7 +6323,7 @@
     </row>
     <row r="91" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
     </row>
     <row r="93" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6355,7 +6355,7 @@
     </row>
     <row r="95" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,7 +6371,7 @@
     </row>
     <row r="97" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6387,7 +6387,7 @@
     </row>
     <row r="99" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6403,7 +6403,7 @@
     </row>
     <row r="101" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6419,7 +6419,7 @@
     </row>
     <row r="103" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6435,7 +6435,7 @@
     </row>
     <row r="105" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
     </row>
     <row r="107" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
     </row>
     <row r="109" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
     </row>
     <row r="111" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6521,7 +6521,7 @@
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6553,7 +6553,7 @@
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6601,7 +6601,7 @@
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6617,7 +6617,7 @@
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
     </row>
     <row r="129" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
     </row>
     <row r="131" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6668,7 +6668,7 @@
     </row>
     <row r="133" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
     </row>
     <row r="135" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6700,7 +6700,7 @@
     </row>
     <row r="137" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
     </row>
     <row r="139" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
     </row>
     <row r="141" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
     </row>
     <row r="143" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6764,7 +6764,7 @@
     </row>
     <row r="145" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6780,7 +6780,7 @@
     </row>
     <row r="147" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6796,7 +6796,7 @@
     </row>
     <row r="149" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
     </row>
     <row r="151" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
     </row>
     <row r="153" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6850,7 +6850,7 @@
     </row>
     <row r="155" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6869,7 +6869,7 @@
     </row>
     <row r="157" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6888,7 +6888,7 @@
     </row>
     <row r="159" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6904,7 +6904,7 @@
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6920,7 +6920,7 @@
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6936,7 +6936,7 @@
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6952,7 +6952,7 @@
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6968,7 +6968,7 @@
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6984,7 +6984,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7000,7 +7000,7 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7032,7 +7032,7 @@
     </row>
     <row r="177" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7048,7 +7048,7 @@
     </row>
     <row r="179" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7064,7 +7064,7 @@
     </row>
     <row r="181" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7080,7 +7080,7 @@
     </row>
     <row r="183" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7096,7 +7096,7 @@
     </row>
     <row r="185" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7112,7 +7112,7 @@
     </row>
     <row r="187" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7131,7 +7131,7 @@
     </row>
     <row r="189" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7150,7 +7150,7 @@
     </row>
     <row r="191" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7166,7 +7166,7 @@
     </row>
     <row r="193" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
     </row>
     <row r="195" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="197" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7217,7 +7217,7 @@
     </row>
     <row r="199" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7233,7 +7233,7 @@
     </row>
     <row r="201" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
     </row>
     <row r="203" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
     </row>
     <row r="205" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="207" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,7 +7306,7 @@
     </row>
     <row r="209" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7325,7 +7325,7 @@
     </row>
     <row r="211" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7341,7 +7341,7 @@
     </row>
     <row r="213" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7360,7 +7360,7 @@
     </row>
     <row r="215" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7379,7 +7379,7 @@
     </row>
     <row r="217" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7395,7 +7395,7 @@
     </row>
     <row r="219" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7411,7 +7411,7 @@
     </row>
     <row r="221" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7427,7 +7427,7 @@
     </row>
     <row r="223" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7443,7 +7443,7 @@
     </row>
     <row r="225" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7459,7 +7459,7 @@
     </row>
     <row r="227" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7475,7 +7475,7 @@
     </row>
     <row r="229" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7491,7 +7491,7 @@
     </row>
     <row r="231" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7507,7 +7507,7 @@
     </row>
     <row r="233" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7523,7 +7523,7 @@
     </row>
     <row r="235" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7539,7 +7539,7 @@
     </row>
     <row r="237" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7555,7 +7555,7 @@
     </row>
     <row r="239" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
     </row>
     <row r="241" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7587,7 +7587,7 @@
     </row>
     <row r="243" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7603,7 +7603,7 @@
     </row>
     <row r="245" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7619,7 +7619,7 @@
     </row>
     <row r="247" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7635,7 +7635,7 @@
     </row>
     <row r="249" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7651,7 +7651,7 @@
     </row>
     <row r="251" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,7 +7670,7 @@
     </row>
     <row r="253" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7686,7 +7686,7 @@
     </row>
     <row r="255" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7702,7 +7702,7 @@
     </row>
     <row r="257" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7718,7 +7718,7 @@
     </row>
     <row r="259" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7734,7 +7734,7 @@
     </row>
     <row r="261" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7750,7 +7750,7 @@
     </row>
     <row r="263" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7769,7 +7769,7 @@
     </row>
     <row r="265" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7785,7 +7785,7 @@
     </row>
     <row r="267" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7801,7 +7801,7 @@
     </row>
     <row r="269" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,7 +7817,7 @@
     </row>
     <row r="271" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
     </row>
     <row r="273" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7849,7 +7849,7 @@
     </row>
     <row r="275" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7865,7 +7865,7 @@
     </row>
     <row r="277" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7881,7 +7881,7 @@
     </row>
     <row r="279" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7897,7 +7897,7 @@
     </row>
     <row r="281" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7913,7 +7913,7 @@
     </row>
     <row r="283" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7929,7 +7929,7 @@
     </row>
     <row r="285" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
     </row>
     <row r="287" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7961,7 +7961,7 @@
     </row>
     <row r="289" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7977,7 +7977,7 @@
     </row>
     <row r="291" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7993,7 +7993,7 @@
     </row>
     <row r="293" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8009,7 +8009,7 @@
     </row>
     <row r="295" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8025,7 +8025,7 @@
     </row>
     <row r="297" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8041,7 +8041,7 @@
     </row>
     <row r="299" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
     </row>
     <row r="301" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8073,7 +8073,7 @@
     </row>
     <row r="303" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8089,7 +8089,7 @@
     </row>
     <row r="305" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8105,7 +8105,7 @@
     </row>
     <row r="307" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8121,7 +8121,7 @@
     </row>
     <row r="309" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8140,7 +8140,7 @@
     </row>
     <row r="311" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,7 +8156,7 @@
     </row>
     <row r="313" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
     </row>
     <row r="315" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8188,7 +8188,7 @@
     </row>
     <row r="317" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8204,7 +8204,7 @@
     </row>
     <row r="319" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8220,7 +8220,7 @@
     </row>
     <row r="321" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8236,7 +8236,7 @@
     </row>
     <row r="323" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8252,7 +8252,7 @@
     </row>
     <row r="325" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8268,7 +8268,7 @@
     </row>
     <row r="327" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8284,7 +8284,7 @@
     </row>
     <row r="329" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8300,7 +8300,7 @@
     </row>
     <row r="331" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8316,7 +8316,7 @@
     </row>
     <row r="333" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8332,7 +8332,7 @@
     </row>
     <row r="335" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8348,7 +8348,7 @@
     </row>
     <row r="337" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8364,7 +8364,7 @@
     </row>
     <row r="339" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8380,7 +8380,7 @@
     </row>
     <row r="341" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
     </row>
     <row r="343" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8412,7 +8412,7 @@
     </row>
     <row r="345" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8428,7 +8428,7 @@
     </row>
     <row r="347" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8444,7 +8444,7 @@
     </row>
     <row r="349" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8460,7 +8460,7 @@
     </row>
     <row r="351" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
     </row>
     <row r="353" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8492,7 +8492,7 @@
     </row>
     <row r="355" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8508,7 +8508,7 @@
     </row>
     <row r="357" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8524,7 +8524,7 @@
     </row>
     <row r="359" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8540,7 +8540,7 @@
     </row>
     <row r="361" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8556,7 +8556,7 @@
     </row>
     <row r="363" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8572,7 +8572,7 @@
     </row>
     <row r="365" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8588,7 +8588,7 @@
     </row>
     <row r="367" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8604,7 +8604,7 @@
     </row>
     <row r="369" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8620,7 +8620,7 @@
     </row>
     <row r="371" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8636,7 +8636,7 @@
     </row>
     <row r="373" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
     </row>
     <row r="375" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8668,7 +8668,7 @@
     </row>
     <row r="377" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8684,7 +8684,7 @@
     </row>
     <row r="379" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8700,7 +8700,7 @@
     </row>
     <row r="381" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8716,7 +8716,7 @@
     </row>
     <row r="383" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8732,7 +8732,7 @@
     </row>
     <row r="385" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8748,7 +8748,7 @@
     </row>
     <row r="387" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8767,7 +8767,7 @@
     </row>
     <row r="389" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8783,7 +8783,7 @@
     </row>
     <row r="391" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8799,7 +8799,7 @@
     </row>
     <row r="393" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
     </row>
     <row r="395" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8834,7 +8834,7 @@
     </row>
     <row r="397" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8850,7 +8850,7 @@
     </row>
     <row r="399" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8866,7 +8866,7 @@
     </row>
     <row r="401" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8885,7 +8885,7 @@
     </row>
     <row r="403" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8901,7 +8901,7 @@
     </row>
     <row r="405" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8917,7 +8917,7 @@
     </row>
     <row r="407" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8936,7 +8936,7 @@
     </row>
     <row r="409" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8955,7 +8955,7 @@
     </row>
     <row r="411" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8974,7 +8974,7 @@
     </row>
     <row r="413" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8990,7 +8990,7 @@
     </row>
     <row r="415" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,7 +9006,7 @@
     </row>
     <row r="417" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9022,7 +9022,7 @@
     </row>
     <row r="419" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9038,7 +9038,7 @@
     </row>
     <row r="421" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9054,7 +9054,7 @@
     </row>
     <row r="423" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9070,7 +9070,7 @@
     </row>
     <row r="425" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9086,7 +9086,7 @@
     </row>
     <row r="427" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9102,7 +9102,7 @@
     </row>
     <row r="429" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9121,7 +9121,7 @@
     </row>
     <row r="431" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9140,7 +9140,7 @@
     </row>
     <row r="433" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,7 +9156,7 @@
     </row>
     <row r="435" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9172,7 +9172,7 @@
     </row>
     <row r="437" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9188,7 +9188,7 @@
     </row>
     <row r="439" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9204,7 +9204,7 @@
     </row>
     <row r="441" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9220,7 +9220,7 @@
     </row>
     <row r="443" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9236,7 +9236,7 @@
     </row>
     <row r="445" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9252,7 +9252,7 @@
     </row>
     <row r="447" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
     </row>
     <row r="449" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9284,7 +9284,7 @@
     </row>
     <row r="451" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,7 +9300,7 @@
     </row>
     <row r="453" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9316,7 +9316,7 @@
     </row>
     <row r="455" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9332,7 +9332,7 @@
     </row>
     <row r="457" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9348,7 +9348,7 @@
     </row>
     <row r="459" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9364,7 +9364,7 @@
     </row>
     <row r="461" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9380,7 +9380,7 @@
     </row>
     <row r="463" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9396,7 +9396,7 @@
     </row>
     <row r="465" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9412,7 +9412,7 @@
     </row>
     <row r="467" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9428,7 +9428,7 @@
     </row>
     <row r="469" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9444,7 +9444,7 @@
     </row>
     <row r="471" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9460,7 +9460,7 @@
     </row>
     <row r="473" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9476,7 +9476,7 @@
     </row>
     <row r="475" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9492,7 +9492,7 @@
     </row>
     <row r="477" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9508,7 +9508,7 @@
     </row>
     <row r="479" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9524,7 +9524,7 @@
     </row>
     <row r="481" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9540,7 +9540,7 @@
     </row>
     <row r="483" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
     </row>
     <row r="485" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,7 +9575,7 @@
     </row>
     <row r="487" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9591,7 +9591,7 @@
     </row>
     <row r="489" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9607,7 +9607,7 @@
     </row>
     <row r="491" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9623,7 +9623,7 @@
     </row>
     <row r="493" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9639,7 +9639,7 @@
     </row>
     <row r="495" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9655,7 +9655,7 @@
     </row>
     <row r="497" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9671,7 +9671,7 @@
     </row>
     <row r="499" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
